--- a/data/trans_dic/P36BPD04_R1_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R1_2023-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9457041641802495</v>
+        <v>0.9457041641802496</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.946593326900653</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9148420771639559</v>
+        <v>0.9170020113467741</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9114560396830748</v>
+        <v>0.9137155368270552</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9234648358996874</v>
+        <v>0.9252785937479933</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9678404319286726</v>
+        <v>0.9679268737576731</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9670229074136145</v>
+        <v>0.9665660800790881</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9613619743069642</v>
+        <v>0.9618536338987135</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.9484817295237423</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9285809300816864</v>
+        <v>0.9285809300816863</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8708882271415223</v>
+        <v>0.8722938204531846</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9294417051936812</v>
+        <v>0.9283388605242342</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9079236002790867</v>
+        <v>0.9094643556107327</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9368599620420544</v>
+        <v>0.93718940855795</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9632514551374637</v>
+        <v>0.9635436447977107</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.945547520370655</v>
+        <v>0.9447657928542328</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8805980074960406</v>
+        <v>0.8791029385031226</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9220739540498262</v>
+        <v>0.921434228935574</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9134471737083109</v>
+        <v>0.9125209529234524</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9453558355057788</v>
+        <v>0.9439945089939292</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9633584314477414</v>
+        <v>0.9645032058393244</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9503467418608058</v>
+        <v>0.9484882958053422</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.9779134953731655</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9694870586153088</v>
+        <v>0.9694870586153087</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9734416032225222</v>
+        <v>0.9734416032225219</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9339203879929264</v>
+        <v>0.9330592025586116</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9488919474037141</v>
+        <v>0.948541189728432</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9512475041806852</v>
+        <v>0.9539698521248349</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9933604657403874</v>
+        <v>0.9926416504075971</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9815743660255406</v>
+        <v>0.9825632684186335</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9845248659438075</v>
+        <v>0.9839696076716633</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.9919719336555465</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9911726784445755</v>
+        <v>0.9911726784445756</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9915527550771988</v>
+        <v>0.9915527550771986</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9722256428715668</v>
+        <v>0.9740248076142692</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9788248311204102</v>
+        <v>0.9789602486024896</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9816439980609716</v>
+        <v>0.9813489840887772</v>
       </c>
     </row>
     <row r="18">
@@ -821,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9982354681843263</v>
+        <v>0.9982887149492803</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9969564490205409</v>
+        <v>0.9966891337266135</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.9670054414672745</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.9672977196236516</v>
+        <v>0.9672977196236513</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.9671496783468545</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9383340783734508</v>
+        <v>0.9340977428744217</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9413405353835921</v>
+        <v>0.9396635810044739</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9476993020155119</v>
+        <v>0.9487780814160679</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9848122539992283</v>
+        <v>0.9848164843187056</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9824805931035361</v>
+        <v>0.9822690290422491</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9806357367520132</v>
+        <v>0.9789762862520576</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8623628836163238</v>
+        <v>0.8597401498012899</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8541608650137367</v>
+        <v>0.8507020732894581</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8644175330496414</v>
+        <v>0.8625336094676752</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9175463517914795</v>
+        <v>0.9149288430922826</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9016846954896133</v>
+        <v>0.8989686145236188</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9020619191791212</v>
+        <v>0.9009711204233427</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9584044439135626</v>
+        <v>0.9576951506786869</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9651084531174531</v>
+        <v>0.9654262008706901</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.965528926820989</v>
+        <v>0.9655945742394373</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9834997253608427</v>
+        <v>0.9841066685556491</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9849368814890559</v>
+        <v>0.9861419487645487</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9822127648288898</v>
+        <v>0.9819894304813669</v>
       </c>
     </row>
     <row r="28">
@@ -1010,7 +1010,7 @@
         <v>0.9461265344235985</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.9433674108243048</v>
+        <v>0.9433674108243046</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9294514683340921</v>
+        <v>0.9307517778088427</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.9389872714240129</v>
+        <v>0.9378624796984617</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.9368477473287684</v>
+        <v>0.9370962164546754</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9494763956880001</v>
+        <v>0.9487727672555848</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9525629716204354</v>
+        <v>0.9525249099209987</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9492516477196449</v>
+        <v>0.9488104520189142</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>291693</v>
+        <v>292382</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>288076</v>
+        <v>288790</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>586313</v>
+        <v>587465</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>308591</v>
+        <v>308619</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>305638</v>
+        <v>305494</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>610374</v>
+        <v>610687</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>462134</v>
+        <v>462880</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>507934</v>
+        <v>507332</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>977962</v>
+        <v>979621</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>497142</v>
+        <v>497317</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>526411</v>
+        <v>526571</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1018488</v>
+        <v>1017646</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>278263</v>
+        <v>277790</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>325676</v>
+        <v>325450</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>611272</v>
+        <v>610652</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>298726</v>
+        <v>298296</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>340257</v>
+        <v>340662</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>635964</v>
+        <v>634721</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>348488</v>
+        <v>348166</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>400395</v>
+        <v>400247</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>756344</v>
+        <v>758508</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>370667</v>
+        <v>370399</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>414186</v>
+        <v>414603</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>782803</v>
+        <v>782361</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>199953</v>
+        <v>200323</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>222020</v>
+        <v>222051</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>424549</v>
+        <v>424422</v>
       </c>
     </row>
     <row r="23">
@@ -1498,10 +1498,10 @@
         <v>205665</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>226423</v>
+        <v>226435</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>431172</v>
+        <v>431056</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>254014</v>
+        <v>252867</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>248279</v>
+        <v>247836</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>506505</v>
+        <v>507081</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>266596</v>
+        <v>266597</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>259129</v>
+        <v>259073</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>524108</v>
+        <v>523221</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>618734</v>
+        <v>616852</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>659461</v>
+        <v>656790</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1287588</v>
+        <v>1284782</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>658328</v>
+        <v>656450</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>696152</v>
+        <v>694055</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1343661</v>
+        <v>1342036</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>764876</v>
+        <v>764310</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>802325</v>
+        <v>802589</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1573236</v>
+        <v>1573343</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>784904</v>
+        <v>785388</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>818809</v>
+        <v>819810</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1600420</v>
+        <v>1600057</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>3281486</v>
+        <v>3286077</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>3503998</v>
+        <v>3499801</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>6803613</v>
+        <v>6805418</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3352185</v>
+        <v>3349701</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3554658</v>
+        <v>3554516</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>6893693</v>
+        <v>6890489</v>
       </c>
     </row>
     <row r="40">
